--- a/data/Config.xlsx
+++ b/data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/721dbff1dadf1425/Documents/UiPath/ic star 15/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_2016DF33F4321B25B6CE7E9709CA87A205D8BCCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A688AFF1-6886-4152-BCDC-0AE58D0BA87E}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_2016DF33F4321B25B6CE7E9709CA87A205D8BCCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21A5FE95-B867-4AE2-95F3-3252EEAA3E93}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>C:\Users\faliq\OneDrive\Documents\UiPath\ic star 15</t>
+  </si>
+  <si>
+    <t>path where assignment report and biodata report downloaded</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -599,6 +602,9 @@
       </c>
       <c r="B4" t="s">
         <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.4">

--- a/data/Config.xlsx
+++ b/data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/721dbff1dadf1425/Documents/UiPath/ic star 15/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_2016DF33F4321B25B6CE7E9709CA87A205D8BCCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21A5FE95-B867-4AE2-95F3-3252EEAA3E93}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_2016DF33F4321B25B6CE7E9709CA87A205D8BCCB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CDDC5A1-1960-42EA-8061-DDA50AA671E6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>path where assignment report and biodata report downloaded</t>
+  </si>
+  <si>
+    <t>templath_path</t>
+  </si>
+  <si>
+    <t>C:\Users\faliq\Downloads</t>
   </si>
 </sst>
 </file>
@@ -533,7 +539,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -608,6 +614,12 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.4">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
